--- a/Gene_exp_rates_Sadiq_081221(new).xlsx
+++ b/Gene_exp_rates_Sadiq_081221(new).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linzm\Documents\Tate_Lab_Rotation\Tate_Rotation_Temp_Immunity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB61540-F604-4DBD-9F63-D2740F733FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E21BAC-B21A-48DC-AC5B-CF886D1370F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{C3D64986-6104-42B5-9E0A-18FF6E39FE4C}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{C3D64986-6104-42B5-9E0A-18FF6E39FE4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Btmid_Rate_Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="17">
   <si>
     <t>Gene</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Delta_ddct2</t>
+  </si>
+  <si>
+    <t>Rate_by_sex</t>
   </si>
 </sst>
 </file>
@@ -453,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06CA77A-D8AA-414B-8A6E-AF92E14BA781}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -806,15 +809,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F281254-9C11-4379-BBEF-D1FA001612CF}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,10 +834,13 @@
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -853,8 +859,12 @@
       <c r="F2">
         <v>1.9231630837481308</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G2">
+        <f>AVERAGE(F2:F3)</f>
+        <v>3.9884229305458168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -874,7 +884,7 @@
         <v>6.0536827773435027</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -893,8 +903,12 @@
       <c r="F4">
         <v>4.8411596793882374</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G4">
+        <f>AVERAGE(F4:F5)</f>
+        <v>10.684642385510587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -914,7 +928,7 @@
         <v>16.528125091632937</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -933,8 +947,12 @@
       <c r="F6">
         <v>2.7018613056687397</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G6">
+        <f t="shared" ref="G6" si="0">AVERAGE(F6:F7)</f>
+        <v>3.7366806213146315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -954,7 +972,7 @@
         <v>4.7714999369605229</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -973,8 +991,12 @@
       <c r="F8">
         <v>6.6340137639416676</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G8">
+        <f t="shared" ref="G8" si="1">AVERAGE(F8:F9)</f>
+        <v>7.7320678660855613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -994,7 +1016,7 @@
         <v>8.8301219682294558</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1035,12 @@
       <c r="F10">
         <v>2.8679971814533491</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G10">
+        <f t="shared" ref="G10" si="2">AVERAGE(F10:F11)</f>
+        <v>6.1402693921869833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1060,7 @@
         <v>9.4125416029206175</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1053,8 +1079,12 @@
       <c r="F12">
         <v>8.7749793912043863</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G12">
+        <f t="shared" ref="G12" si="3">AVERAGE(F12:F13)</f>
+        <v>6.9839685754684986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1104,7 @@
         <v>5.1929577597326118</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1093,8 +1123,12 @@
       <c r="F14">
         <v>2.4785134778031752</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G14">
+        <f t="shared" ref="G14" si="4">AVERAGE(F14:F15)</f>
+        <v>2.787038001960731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1148,7 @@
         <v>3.0955625261182864</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1133,8 +1167,12 @@
       <c r="F16">
         <v>3.0693911411099601</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G16">
+        <f t="shared" ref="G16" si="5">AVERAGE(F16:F17)</f>
+        <v>3.3355994055250515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1192,7 @@
         <v>3.6018076699401429</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1173,8 +1211,12 @@
       <c r="F18">
         <v>0.24892775275798734</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G18">
+        <f t="shared" ref="G18" si="6">AVERAGE(F18:F19)</f>
+        <v>0.38085305346433096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1236,7 @@
         <v>0.51277835417067463</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1213,8 +1255,12 @@
       <c r="F20">
         <v>0.45735969165386903</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G20">
+        <f t="shared" ref="G20" si="7">AVERAGE(F20:F21)</f>
+        <v>0.69454905698238889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1280,7 @@
         <v>0.93173842231090886</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1253,8 +1299,12 @@
       <c r="F22">
         <v>0.54948776195520432</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G22">
+        <f t="shared" ref="G22" si="8">AVERAGE(F22:F23)</f>
+        <v>0.69357054685251018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1324,7 @@
         <v>0.83765333174981604</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1293,8 +1343,12 @@
       <c r="F24">
         <v>0.74383762366396666</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G24">
+        <f t="shared" ref="G24" si="9">AVERAGE(F24:F25)</f>
+        <v>0.85755577526714832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1314,7 +1368,7 @@
         <v>0.97127392687032987</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1333,8 +1387,12 @@
       <c r="F26">
         <v>0.94227031094740132</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G26">
+        <f t="shared" ref="G26" si="10">AVERAGE(F26:F27)</f>
+        <v>0.96926920345769441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1412,7 @@
         <v>0.99626809596798749</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1373,8 +1431,12 @@
       <c r="F28">
         <v>0.50675694953277683</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G28">
+        <f t="shared" ref="G28" si="11">AVERAGE(F28:F29)</f>
+        <v>0.50914757792664056</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1394,7 +1456,7 @@
         <v>0.51153820632050429</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1413,8 +1475,12 @@
       <c r="F30">
         <v>0.48502456221948648</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G30">
+        <f t="shared" ref="G30" si="12">AVERAGE(F30:F31)</f>
+        <v>0.57966175923098484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1434,7 +1500,7 @@
         <v>0.67429895624248326</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1453,8 +1519,12 @@
       <c r="F32">
         <v>1.7630780690368109E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G32">
+        <f t="shared" ref="G32" si="13">AVERAGE(F32:F33)</f>
+        <v>0.10002589587234281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1544,7 @@
         <v>0.18242101105431752</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1493,8 +1563,12 @@
       <c r="F34">
         <v>4.6195589032786337</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G34">
+        <f t="shared" ref="G34" si="14">AVERAGE(F34:F35)</f>
+        <v>5.4935659851514176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1588,7 @@
         <v>6.3675730670242014</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1533,8 +1607,12 @@
       <c r="F36">
         <v>5.649024957090516</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G36">
+        <f t="shared" ref="G36" si="15">AVERAGE(F36:F37)</f>
+        <v>12.884722875906373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1554,7 +1632,7 @@
         <v>20.120420794722229</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1573,8 +1651,12 @@
       <c r="F38">
         <v>5.9033593155517785</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G38">
+        <f t="shared" ref="G38" si="16">AVERAGE(F38:F39)</f>
+        <v>13.868655021648991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1594,7 +1676,7 @@
         <v>21.833950727746203</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1613,8 +1695,12 @@
       <c r="F40">
         <v>8.2868613156928745</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G40">
+        <f t="shared" ref="G40" si="17">AVERAGE(F40:F41)</f>
+        <v>15.149779570286606</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1634,7 +1720,7 @@
         <v>22.012697824880338</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1653,8 +1739,12 @@
       <c r="F42">
         <v>28.439824330118483</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G42">
+        <f t="shared" ref="G42" si="18">AVERAGE(F42:F43)</f>
+        <v>44.776413165666639</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1674,7 +1764,7 @@
         <v>61.113002001214795</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1693,8 +1783,12 @@
       <c r="F44">
         <v>12.337525454180817</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G44">
+        <f t="shared" ref="G44" si="19">AVERAGE(F44:F45)</f>
+        <v>58.723747905158682</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1714,7 +1808,7 @@
         <v>105.10997035613654</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1733,8 +1827,12 @@
       <c r="F46">
         <v>26.154716725995645</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G46">
+        <f t="shared" ref="G46" si="20">AVERAGE(F46:F47)</f>
+        <v>59.903816841181225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1754,7 +1852,7 @@
         <v>93.652916956366809</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1773,8 +1871,12 @@
       <c r="F48">
         <v>4.4348898436637274</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G48">
+        <f t="shared" ref="G48" si="21">AVERAGE(F48:F49)</f>
+        <v>33.618567550156946</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1794,7 +1896,7 @@
         <v>62.80224525665016</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1813,8 +1915,12 @@
       <c r="F50">
         <v>2.7520388085662453</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G50">
+        <f t="shared" ref="G50" si="22">AVERAGE(F50:F51)</f>
+        <v>7.576416465657692</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1834,7 +1940,7 @@
         <v>12.400794122749138</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1853,8 +1959,12 @@
       <c r="F52">
         <v>7.3688594274399106</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G52">
+        <f t="shared" ref="G52" si="23">AVERAGE(F52:F53)</f>
+        <v>52.098475990406271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1874,7 +1984,7 @@
         <v>96.828092553372628</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1893,8 +2003,12 @@
       <c r="F54">
         <v>4.241235226481173</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G54">
+        <f t="shared" ref="G54" si="24">AVERAGE(F54:F55)</f>
+        <v>4.6928098607906872</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1914,7 +2028,7 @@
         <v>5.1443844951002022</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1933,8 +2047,12 @@
       <c r="F56">
         <v>11.186383911362185</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G56">
+        <f t="shared" ref="G56" si="25">AVERAGE(F56:F57)</f>
+        <v>30.661054718729989</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1954,7 +2072,7 @@
         <v>50.135725526097794</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -1973,8 +2091,12 @@
       <c r="F58">
         <v>33.78807421826545</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G58">
+        <f t="shared" ref="G58" si="26">AVERAGE(F58:F59)</f>
+        <v>44.056653478949414</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -1994,7 +2116,7 @@
         <v>54.325232739633378</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2013,8 +2135,12 @@
       <c r="F60">
         <v>69.190644990689918</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G60">
+        <f t="shared" ref="G60" si="27">AVERAGE(F60:F61)</f>
+        <v>72.332713976576727</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2034,7 +2160,7 @@
         <v>75.474782962463536</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2053,8 +2179,12 @@
       <c r="F62">
         <v>114.92869838417403</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G62">
+        <f t="shared" ref="G62" si="28">AVERAGE(F62:F63)</f>
+        <v>259.42921232873414</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2074,7 +2204,7 @@
         <v>403.92972627329419</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2093,8 +2223,12 @@
       <c r="F64">
         <v>8.0048278461587685</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G64">
+        <f t="shared" ref="G64" si="29">AVERAGE(F64:F65)</f>
+        <v>195.7962737840277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2114,7 +2248,7 @@
         <v>383.58771972189663</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2133,8 +2267,12 @@
       <c r="F66">
         <v>-9.0524498507550566E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G66">
+        <f t="shared" ref="G66" si="30">AVERAGE(F66:F67)</f>
+        <v>-6.0992082321883537E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2154,7 +2292,7 @@
         <v>-3.1459666136216508E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2173,8 +2311,12 @@
       <c r="F68">
         <v>-1.4322525846624523E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G68">
+        <f t="shared" ref="G68" si="31">AVERAGE(F68:F69)</f>
+        <v>0.10137048428357948</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2194,7 +2336,7 @@
         <v>0.2041732211518214</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -2213,8 +2355,12 @@
       <c r="F70">
         <v>6.4620274245925757E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G70">
+        <f t="shared" ref="G70" si="32">AVERAGE(F70:F71)</f>
+        <v>0.14840437902981973</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2234,7 +2380,7 @@
         <v>0.23218848381371371</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2253,8 +2399,12 @@
       <c r="F72">
         <v>0.30379352539608961</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G72">
+        <f t="shared" ref="G72" si="33">AVERAGE(F72:F73)</f>
+        <v>1.0574495711386915</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2274,7 +2424,7 @@
         <v>1.8111056168812936</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -2293,8 +2443,12 @@
       <c r="F74">
         <v>-0.16692265753682128</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G74">
+        <f t="shared" ref="G74" si="34">AVERAGE(F74:F75)</f>
+        <v>0.19635760091599672</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -2314,7 +2468,7 @@
         <v>0.55963785936881472</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -2333,8 +2487,12 @@
       <c r="F76">
         <v>-0.6981552115798878</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G76">
+        <f t="shared" ref="G76" si="35">AVERAGE(F76:F77)</f>
+        <v>0.13348227516571215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -2354,7 +2512,7 @@
         <v>0.9651197619113121</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -2373,8 +2531,12 @@
       <c r="F78">
         <v>7.9765638027424368E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G78">
+        <f t="shared" ref="G78" si="36">AVERAGE(F78:F79)</f>
+        <v>0.11332495054832306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -2394,7 +2556,7 @@
         <v>0.14688426306922175</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -2413,8 +2575,12 @@
       <c r="F80">
         <v>1.6933630430978641</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G80">
+        <f t="shared" ref="G80" si="37">AVERAGE(F80:F81)</f>
+        <v>5.6961187327160392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2434,7 +2600,7 @@
         <v>9.6988744223342138</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -2451,11 +2617,15 @@
         <v>3.0783807400602039</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82:F113" si="0">E82/4</f>
+        <f t="shared" ref="F82:F113" si="38">E82/4</f>
         <v>0.76959518501505098</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G82">
+        <f t="shared" ref="G82" si="39">AVERAGE(F82:F83)</f>
+        <v>2.3431567279287053</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -2472,11 +2642,11 @@
         <v>15.66687308336944</v>
       </c>
       <c r="F83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>3.91671827084236</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -2493,11 +2663,15 @@
         <v>6.4836481760991909</v>
       </c>
       <c r="F84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>1.6209120440247977</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G84">
+        <f t="shared" ref="G84" si="40">AVERAGE(F84:F85)</f>
+        <v>2.6844646466306781</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -2514,11 +2688,11 @@
         <v>14.992068996946232</v>
       </c>
       <c r="F85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>3.748017249236558</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2535,11 +2709,15 @@
         <v>3.3408349110526965</v>
       </c>
       <c r="F86">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>0.83520872776317412</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G86">
+        <f t="shared" ref="G86" si="41">AVERAGE(F86:F87)</f>
+        <v>1.1251277410784279</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2556,11 +2734,11 @@
         <v>5.6601870175747271</v>
       </c>
       <c r="F87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>1.4150467543936818</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2577,11 +2755,15 @@
         <v>6.4736892875434382</v>
       </c>
       <c r="F88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>1.6184223218858595</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G88">
+        <f t="shared" ref="G88" si="42">AVERAGE(F88:F89)</f>
+        <v>1.7390504621587715</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2598,11 +2780,11 @@
         <v>7.4387144097267344</v>
       </c>
       <c r="F89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>1.8596786024316836</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2619,11 +2801,15 @@
         <v>6.2713757058792421</v>
       </c>
       <c r="F90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>1.5678439264698105</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G90">
+        <f t="shared" ref="G90" si="43">AVERAGE(F90:F91)</f>
+        <v>1.7945884077420722</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -2640,11 +2826,11 @@
         <v>8.0853315560573353</v>
       </c>
       <c r="F91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>2.0213328890143338</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -2661,11 +2847,15 @@
         <v>3.7931071266372411</v>
       </c>
       <c r="F92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>0.94827678165931029</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G92">
+        <f t="shared" ref="G92" si="44">AVERAGE(F92:F93)</f>
+        <v>4.0427270376341902</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -2682,11 +2872,11 @@
         <v>28.548709174436279</v>
       </c>
       <c r="F93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>7.1371772936090698</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -2703,11 +2893,15 @@
         <v>4.2260229871279433</v>
       </c>
       <c r="F94">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>1.0565057467819858</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G94">
+        <f t="shared" ref="G94" si="45">AVERAGE(F94:F95)</f>
+        <v>1.4797260838934689</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -2724,11 +2918,11 @@
         <v>7.6117856840198082</v>
       </c>
       <c r="F95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>1.902946421004952</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -2745,11 +2939,15 @@
         <v>5.6551201407069884</v>
       </c>
       <c r="F96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>1.4137800351767471</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G96">
+        <f t="shared" ref="G96" si="46">AVERAGE(F96:F97)</f>
+        <v>2.1047187756142347</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -2766,11 +2964,11 @@
         <v>11.18263006420689</v>
       </c>
       <c r="F97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>2.7956575160517225</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -2787,11 +2985,15 @@
         <v>-1.2494694549904348</v>
       </c>
       <c r="F98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>-0.31236736374760871</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G98">
+        <f t="shared" ref="G98" si="47">AVERAGE(F98:F99)</f>
+        <v>-0.23469312282507931</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -2808,11 +3010,11 @@
         <v>-0.6280755276101998</v>
       </c>
       <c r="F99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>-0.15701888190254995</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -2829,11 +3031,15 @@
         <v>0.81844979205906121</v>
       </c>
       <c r="F100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>0.2046124480147653</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G100">
+        <f t="shared" ref="G100" si="48">AVERAGE(F100:F101)</f>
+        <v>0.65971718611904961</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -2850,11 +3056,11 @@
         <v>4.4592876968933357</v>
       </c>
       <c r="F101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>1.1148219242233339</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -2871,11 +3077,15 @@
         <v>-1.7451628451369872</v>
       </c>
       <c r="F102">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>-0.43629071128424679</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G102">
+        <f t="shared" ref="G102" si="49">AVERAGE(F102:F103)</f>
+        <v>-0.34882181261829309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -2892,11 +3102,11 @@
         <v>-1.0454116558093576</v>
       </c>
       <c r="F103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>-0.26135291395233939</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -2913,11 +3123,15 @@
         <v>-1.0239708629946394</v>
       </c>
       <c r="F104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>-0.25599271574865984</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G104">
+        <f t="shared" ref="G104" si="50">AVERAGE(F104:F105)</f>
+        <v>-0.16208640702752397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -2934,11 +3148,11 @@
         <v>-0.27272039322555242</v>
       </c>
       <c r="F105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>-6.8180098306388104E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -2955,11 +3169,15 @@
         <v>3.6330039344247322</v>
       </c>
       <c r="F106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>0.90825098360618306</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G106">
+        <f t="shared" ref="G106" si="51">AVERAGE(F106:F107)</f>
+        <v>0.94038869835422356</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -2976,11 +3194,11 @@
         <v>3.8901056524090567</v>
       </c>
       <c r="F107">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>0.97252641310226418</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -2997,11 +3215,15 @@
         <v>0.30019219736952651</v>
       </c>
       <c r="F108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>7.5048049342381629E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G108">
+        <f t="shared" ref="G108" si="52">AVERAGE(F108:F109)</f>
+        <v>1.8447823152727727</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3018,11 +3240,11 @@
         <v>14.458066324812656</v>
       </c>
       <c r="F109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>3.6145165812031639</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -3039,11 +3261,15 @@
         <v>6.6817790288568935E-2</v>
       </c>
       <c r="F110">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>1.6704447572142234E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G110">
+        <f t="shared" ref="G110" si="53">AVERAGE(F110:F111)</f>
+        <v>0.64355263492847725</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -3060,11 +3286,11 @@
         <v>5.0816032891392489</v>
       </c>
       <c r="F111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>1.2704008222848122</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -3081,11 +3307,15 @@
         <v>-0.96056594221261071</v>
       </c>
       <c r="F112">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>-0.24014148555315268</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G112">
+        <f t="shared" ref="G112" si="54">AVERAGE(F112:F113)</f>
+        <v>-3.2300336521383061E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -3102,11 +3332,11 @@
         <v>0.70216325004154623</v>
       </c>
       <c r="F113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>0.17554081251038656</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -3123,11 +3353,15 @@
         <v>-0.6022405056533594</v>
       </c>
       <c r="F114">
-        <f t="shared" ref="F114:F145" si="1">E114/4</f>
+        <f t="shared" ref="F114:F145" si="55">E114/4</f>
         <v>-0.15056012641333985</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G114">
+        <f t="shared" ref="G114" si="56">AVERAGE(F114:F115)</f>
+        <v>-0.14110398175645394</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -3144,11 +3378,11 @@
         <v>-0.52659134839827226</v>
       </c>
       <c r="F115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>-0.13164783709956807</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -3165,11 +3399,15 @@
         <v>-0.43785309114146542</v>
       </c>
       <c r="F116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>-0.10946327278536636</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G116">
+        <f t="shared" ref="G116" si="57">AVERAGE(F116:F117)</f>
+        <v>4.5270139093825726E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -3186,11 +3424,11 @@
         <v>0.80001420389207123</v>
       </c>
       <c r="F117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>0.20000355097301781</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -3207,11 +3445,15 @@
         <v>-0.51556923480680739</v>
       </c>
       <c r="F118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>-0.12889230870170185</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G118">
+        <f t="shared" ref="G118" si="58">AVERAGE(F118:F119)</f>
+        <v>3.9646380959556402E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -3228,11 +3470,11 @@
         <v>0.8327402824832586</v>
       </c>
       <c r="F119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>0.20818507062081465</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -3249,11 +3491,15 @@
         <v>0.17731663286498001</v>
       </c>
       <c r="F120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>4.4329158216245002E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G120">
+        <f t="shared" ref="G120" si="59">AVERAGE(F120:F121)</f>
+        <v>0.35463497588052451</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -3270,11 +3516,11 @@
         <v>2.6597631741792158</v>
       </c>
       <c r="F121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>0.66494079354480395</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -3291,11 +3537,15 @@
         <v>-0.75437147911914726</v>
       </c>
       <c r="F122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>-0.18859286977978681</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G122">
+        <f t="shared" ref="G122" si="60">AVERAGE(F122:F123)</f>
+        <v>0.1448917762075681</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -3312,11 +3562,11 @@
         <v>1.913505688779692</v>
       </c>
       <c r="F123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>0.47837642219492299</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -3333,11 +3583,15 @@
         <v>-3.7941248936758045</v>
       </c>
       <c r="F124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>-0.94853122341895113</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G124">
+        <f t="shared" ref="G124" si="61">AVERAGE(F124:F125)</f>
+        <v>-0.25168304198840885</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -3354,11 +3608,11 @@
         <v>1.7806605577685335</v>
       </c>
       <c r="F125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>0.44516513944213337</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -3375,11 +3629,15 @@
         <v>-0.6186269152358439</v>
       </c>
       <c r="F126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>-0.15465672880896097</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G126">
+        <f t="shared" ref="G126" si="62">AVERAGE(F126:F127)</f>
+        <v>9.4468573081252616E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -3396,11 +3654,11 @@
         <v>1.3743754998858648</v>
       </c>
       <c r="F127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>0.34359387497146621</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -3417,11 +3675,15 @@
         <v>1.625486297003671</v>
       </c>
       <c r="F128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>0.40637157425091774</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G128">
+        <f t="shared" ref="G128" si="63">AVERAGE(F128:F129)</f>
+        <v>0.59231493864750107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -3438,11 +3700,11 @@
         <v>3.113033212176338</v>
       </c>
       <c r="F129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>0.7782583030440845</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -3459,11 +3721,15 @@
         <v>16.096690987499169</v>
       </c>
       <c r="F130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>4.0241727468747923</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G130">
+        <f t="shared" ref="G130" si="64">AVERAGE(F130:F131)</f>
+        <v>4.5620025439570737</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3480,11 +3746,11 @@
         <v>20.39932936415742</v>
       </c>
       <c r="F131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>5.0998323410393551</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3501,11 +3767,15 @@
         <v>40.829560502700637</v>
       </c>
       <c r="F132">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>10.207390125675159</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G132">
+        <f t="shared" ref="G132" si="65">AVERAGE(F132:F133)</f>
+        <v>15.336351498252657</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -3522,11 +3792,11 @@
         <v>81.861251483320615</v>
       </c>
       <c r="F133">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>20.465312870830154</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -3543,11 +3813,15 @@
         <v>7.1980775978744598</v>
       </c>
       <c r="F134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>1.7995193994686149</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G134">
+        <f t="shared" ref="G134" si="66">AVERAGE(F134:F135)</f>
+        <v>4.9469085617843476</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -3564,11 +3838,11 @@
         <v>32.377190896400322</v>
       </c>
       <c r="F135">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>8.0942977241000804</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -3585,11 +3859,15 @@
         <v>2.4485869806421965</v>
       </c>
       <c r="F136">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>0.61214674516054912</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G136">
+        <f t="shared" ref="G136" si="67">AVERAGE(F136:F137)</f>
+        <v>3.0660182697461846</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -3606,11 +3884,11 @@
         <v>22.07955917732728</v>
       </c>
       <c r="F137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>5.5198897943318199</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -3627,11 +3905,15 @@
         <v>118.1345565713966</v>
       </c>
       <c r="F138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>29.53363914284915</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G138">
+        <f t="shared" ref="G138" si="68">AVERAGE(F138:F139)</f>
+        <v>42.728538777274963</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -3648,11 +3930,11 @@
         <v>223.69375364680309</v>
       </c>
       <c r="F139">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>55.923438411700772</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -3669,11 +3951,15 @@
         <v>18.737052141894843</v>
       </c>
       <c r="F140">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>4.6842630354737107</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G140">
+        <f t="shared" ref="G140" si="69">AVERAGE(F140:F141)</f>
+        <v>63.212770219826204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -3690,11 +3976,11 @@
         <v>486.96510961671481</v>
       </c>
       <c r="F141">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>121.7412774041787</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -3711,11 +3997,15 @@
         <v>9.2892174467069175</v>
       </c>
       <c r="F142">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>2.3223043616767294</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G142">
+        <f t="shared" ref="G142" si="70">AVERAGE(F142:F143)</f>
+        <v>33.17352084795121</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -3732,11 +4022,11 @@
         <v>256.09894933690276</v>
       </c>
       <c r="F143">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>64.024737334225691</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -3753,11 +4043,15 @@
         <v>8.0630369801502031</v>
       </c>
       <c r="F144">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>2.0157592450375508</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G144">
+        <f t="shared" ref="G144" si="71">AVERAGE(F144:F145)</f>
+        <v>4.8061749823801723</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -3774,11 +4068,11 @@
         <v>30.386362878891177</v>
       </c>
       <c r="F145">
-        <f t="shared" si="1"/>
+        <f t="shared" si="55"/>
         <v>7.5965907197227942</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -3795,11 +4089,15 @@
         <v>0.10424204462878639</v>
       </c>
       <c r="F146">
-        <f t="shared" ref="F146:F177" si="2">E146/4</f>
+        <f t="shared" ref="F146:F161" si="72">E146/4</f>
         <v>2.6060511157196597E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G146">
+        <f t="shared" ref="G146" si="73">AVERAGE(F146:F147)</f>
+        <v>0.13546695268656017</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -3816,11 +4114,11 @@
         <v>0.97949357686369498</v>
       </c>
       <c r="F147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>0.24487339421592375</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -3837,11 +4135,15 @@
         <v>0.80966800532213656</v>
       </c>
       <c r="F148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>0.20241700133053414</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G148">
+        <f t="shared" ref="G148" si="74">AVERAGE(F148:F149)</f>
+        <v>0.27696012820450111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3858,11 +4160,11 @@
         <v>1.4060130203138723</v>
       </c>
       <c r="F149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>0.35150325507846808</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -3879,11 +4181,15 @@
         <v>0.34418193619118709</v>
       </c>
       <c r="F150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>8.6045484047796772E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G150">
+        <f t="shared" ref="G150" si="75">AVERAGE(F150:F151)</f>
+        <v>9.326561050862664E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -3900,11 +4206,11 @@
         <v>0.40194294787782603</v>
       </c>
       <c r="F151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>0.10048573696945651</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -3921,11 +4227,15 @@
         <v>0.22102020032671099</v>
       </c>
       <c r="F152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>5.5255050081677748E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G152">
+        <f t="shared" ref="G152" si="76">AVERAGE(F152:F153)</f>
+        <v>8.1864320356637349E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -3942,11 +4252,11 @@
         <v>0.4338943625263878</v>
       </c>
       <c r="F153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>0.10847359063159695</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -3963,11 +4273,15 @@
         <v>1.165704209054313</v>
       </c>
       <c r="F154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>0.29142605226357826</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G154">
+        <f t="shared" ref="G154" si="77">AVERAGE(F154:F155)</f>
+        <v>0.38472309350241635</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3984,11 +4298,11 @@
         <v>1.9120805389650177</v>
       </c>
       <c r="F155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>0.47802013474125443</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -4005,11 +4319,15 @@
         <v>0.39073304653128638</v>
       </c>
       <c r="F156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>9.7683261632821594E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G156">
+        <f t="shared" ref="G156" si="78">AVERAGE(F156:F157)</f>
+        <v>0.1984542380606282</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -4026,11 +4344,11 @@
         <v>1.1969008579537392</v>
       </c>
       <c r="F157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>0.29922521448843481</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -4047,11 +4365,15 @@
         <v>-0.17316384690067588</v>
       </c>
       <c r="F158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>-4.3290961725168969E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="G158">
+        <f t="shared" ref="G158" si="79">AVERAGE(F158:F159)</f>
+        <v>6.9508160055644239E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -4068,11 +4390,11 @@
         <v>0.72922912734582979</v>
       </c>
       <c r="F159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>0.18230728183645745</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -4089,8 +4411,12 @@
         <v>-3.0090076925950671E-2</v>
       </c>
       <c r="F160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>-7.5225192314876677E-3</v>
+      </c>
+      <c r="G160">
+        <f t="shared" ref="G160" si="80">AVERAGE(F160:F161)</f>
+        <v>2.4683289511937184E-2</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.75">
@@ -4110,7 +4436,7 @@
         <v>0.22755639302144814</v>
       </c>
       <c r="F161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="72"/>
         <v>5.6889098255362036E-2</v>
       </c>
     </row>
@@ -4125,7 +4451,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
